--- a/benchmark/NAS-PBv3.3.1 P2C Benchmarking (default scheduler).xlsx
+++ b/benchmark/NAS-PBv3.3.1 P2C Benchmarking (default scheduler).xlsx
@@ -1,469 +1,712 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="9"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="BT" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="CG" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="DT" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="EP" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="FT" sheetId="5" r:id="rId7"/>
-    <sheet state="visible" name="IS" sheetId="6" r:id="rId8"/>
-    <sheet state="visible" name="LU" sheetId="7" r:id="rId9"/>
-    <sheet state="visible" name="MG" sheetId="8" r:id="rId10"/>
-    <sheet state="visible" name="SP" sheetId="9" r:id="rId11"/>
+    <sheet name="BT" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="CG" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="DT" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="EP" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="FT" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="IS" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="LU" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="MG" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="SP" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="GNUPlot" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="15">
-  <si>
-    <t>CG</t>
-  </si>
-  <si>
-    <t>Class A</t>
-  </si>
-  <si>
-    <t>BT</t>
-  </si>
-  <si>
-    <t>Class B</t>
-  </si>
-  <si>
-    <t>Processors</t>
-  </si>
-  <si>
-    <t>Time (s)</t>
-  </si>
-  <si>
-    <t>Mop/s Total</t>
-  </si>
-  <si>
-    <t>Mop/s per process</t>
-  </si>
-  <si>
-    <t>EP</t>
-  </si>
-  <si>
-    <t>FT</t>
-  </si>
-  <si>
-    <t>IS</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>LU</t>
-  </si>
-  <si>
-    <t>MG</t>
-  </si>
-  <si>
-    <t>SP</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="21">
+  <si>
+    <t xml:space="preserve">BT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time (s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mop/s Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mop/s per process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 nodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 nodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 nodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 nodes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.9030612244898"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="3">
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="n">
         <v>61.19</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="3" t="n">
         <v>2750.27</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="3" t="n">
         <v>2750.27</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="3" t="n">
         <v>257.37</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="3" t="n">
         <v>2728.27</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="3" t="n">
         <v>2728.27</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="B4" s="3">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="n">
         <v>31.87</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="3" t="n">
         <v>5280.08</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="3" t="n">
         <v>1320.02</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="3" t="n">
         <v>88.02</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="3" t="n">
         <v>7977.81</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="3" t="n">
         <v>1994.45</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3">
-        <v>9.0</v>
-      </c>
-      <c r="B5" s="3">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="n">
         <v>15.54</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="3" t="n">
         <v>10825.93</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="3" t="n">
         <v>1202.88</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="3" t="n">
         <v>69.38</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="3" t="n">
         <v>10121.13</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="3" t="n">
         <v>1124.57</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3">
-        <v>16.0</v>
-      </c>
-      <c r="B6" s="3">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="n">
         <v>11.64</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="3" t="n">
         <v>14453.37</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="3" t="n">
         <v>903.34</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="3" t="n">
         <v>49.4</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="3" t="n">
         <v>14213.57</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="3" t="n">
         <v>888.35</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>15.47</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>57.31</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>31.75</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>17.33</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>88.17</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="4" max="4" width="17.0"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="3">
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="n">
         <v>1.24</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="3" t="n">
         <v>1208.2</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="3" t="n">
         <v>1208.2</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="3" t="n">
         <v>80.95</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="3" t="n">
         <v>675.82</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="3" t="n">
         <v>675.82</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="3">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="n">
         <v>1.08</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="3" t="n">
         <v>1387.44</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="3" t="n">
         <v>693.72</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="3" t="n">
         <v>42.11</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="3" t="n">
         <v>1299.09</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="3" t="n">
         <v>649.55</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="3">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="n">
         <v>1.49</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="3" t="n">
         <v>1003.79</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="3" t="n">
         <v>250.95</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="3" t="n">
         <v>43.08</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="3" t="n">
         <v>1270.01</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="3" t="n">
         <v>317.5</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="B6" s="3">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="n">
         <v>1.48</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="3" t="n">
         <v>1010.17</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="3" t="n">
         <v>126.27</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="3" t="n">
         <v>46.37</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="3" t="n">
         <v>1179.94</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="3" t="n">
         <v>147.49</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3">
-        <v>16.0</v>
-      </c>
-      <c r="B7" s="3">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="n">
         <v>15.47</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="3" t="n">
         <v>96.74</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="3" t="n">
         <v>6.05</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="3" t="n">
         <v>147.76</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="3" t="n">
         <v>370.26</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="3" t="n">
         <v>23.14</v>
       </c>
     </row>
@@ -472,177 +715,209 @@
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.9030612244898"/>
+  </cols>
   <sheetData/>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.0"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="3">
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="n">
         <v>20.2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="3" t="n">
         <v>26.58</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="3" t="n">
         <v>26.58</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="3" t="n">
         <v>80.85</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="3" t="n">
         <v>26.56</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="3" t="n">
         <v>26.56</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="3">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="n">
         <v>10.12</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="3" t="n">
         <v>53.06</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="3" t="n">
         <v>26.53</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="3" t="n">
         <v>40.47</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="3" t="n">
         <v>53.07</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="3" t="n">
         <v>26.53</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="3">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="n">
         <v>5.14</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="3" t="n">
         <v>104.53</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="3" t="n">
         <v>26.13</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="3" t="n">
         <v>20.37</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="3" t="n">
         <v>105.45</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="3" t="n">
         <v>26.36</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="B6" s="3">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="n">
         <v>3.08</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="3" t="n">
         <v>174.45</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="3" t="n">
         <v>21.81</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="3" t="n">
         <v>12.31</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="3" t="n">
         <v>174.45</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="3" t="n">
         <v>21.81</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3">
-        <v>16.0</v>
-      </c>
-      <c r="B7" s="3">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="n">
         <v>1.56</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="3" t="n">
         <v>344.4</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="3" t="n">
         <v>21.53</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="3" t="n">
         <v>6.12</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="3" t="n">
         <v>350.64</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="3" t="n">
         <v>21.91</v>
       </c>
     </row>
@@ -651,163 +926,182 @@
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.9030612244898"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="3">
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="n">
         <v>4.72</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="3" t="n">
         <v>1510.51</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="3" t="n">
         <v>1510.51</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="n">
         <v>5.05</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="3" t="n">
         <v>1413.65</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="3" t="n">
         <v>706.83</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="3" t="n">
         <v>81.29</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="3" t="n">
         <v>1132.39</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="3" t="n">
         <v>566.19</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="3">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="n">
         <v>5.72</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="3" t="n">
         <v>1248.08</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="3" t="n">
         <v>312.02</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="3" t="n">
         <v>71.63</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="3" t="n">
         <v>1285.12</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="3" t="n">
         <v>321.28</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="B6" s="3">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="n">
         <v>4.4</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="3" t="n">
         <v>1621.41</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="3" t="n">
         <v>202.68</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="3" t="n">
         <v>51.86</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="3" t="n">
         <v>1774.95</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="3" t="n">
         <v>221.87</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3">
-        <v>16.0</v>
-      </c>
-      <c r="B7" s="3">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="n">
         <v>3.13</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="3" t="n">
         <v>2280.59</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="3" t="n">
         <v>142.54</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="3" t="n">
         <v>34.66</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="3" t="n">
         <v>2656.1</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="3" t="n">
         <v>166.01</v>
       </c>
     </row>
@@ -816,163 +1110,182 @@
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.9030612244898"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="3">
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="n">
         <v>0.66</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="3" t="n">
         <v>127.78</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="3" t="n">
         <v>127.78</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="3" t="n">
         <v>2.84</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="3" t="n">
         <v>118.1</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="3" t="n">
         <v>118.1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="3">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="n">
         <v>1.14</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="3" t="n">
         <v>73.66</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="3" t="n">
         <v>36.83</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="3" t="n">
         <v>4.56</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="3" t="n">
         <v>73.51</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="3" t="n">
         <v>36.75</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="3">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="n">
         <v>0.92</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="3" t="n">
         <v>91.48</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="3" t="n">
         <v>22.87</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="3" t="n">
         <v>3.59</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="3" t="n">
         <v>93.46</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="3" t="n">
         <v>23.37</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="B6" s="3">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="n">
         <v>0.97</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="3" t="n">
         <v>86.29</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="3" t="n">
         <v>10.79</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="3" t="n">
         <v>3.76</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="3" t="n">
         <v>89.14</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="3" t="n">
         <v>11.14</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3">
-        <v>16.0</v>
-      </c>
-      <c r="B7" s="3">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="n">
         <v>36.9</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="3" t="n">
         <v>2.27</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="3" t="n">
         <v>0.14</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="3" t="n">
         <v>157.25</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="3" t="n">
         <v>2.13</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="3" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -981,163 +1294,182 @@
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.9030612244898"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="3">
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="n">
         <v>57.31</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="3" t="n">
         <v>2081.66</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="3" t="n">
         <v>2081.66</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="3" t="n">
         <v>267.3</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="3" t="n">
         <v>1866.16</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="3" t="n">
         <v>1866.16</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="3">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="n">
         <v>31.75</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="3" t="n">
         <v>3757.85</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="3" t="n">
         <v>1878.93</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="3" t="n">
         <v>137.49</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="3" t="n">
         <v>3628.14</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="3" t="n">
         <v>1814.07</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="3">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="n">
         <v>20.75</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="3" t="n">
         <v>5750.15</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="3" t="n">
         <v>1437.54</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="3" t="n">
         <v>101.38</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="3" t="n">
         <v>4920.38</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="3" t="n">
         <v>1230.1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="B6" s="3">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="n">
         <v>17.33</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="3" t="n">
         <v>6884.4</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="3" t="n">
         <v>860.55</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="3" t="n">
         <v>75.05</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="3" t="n">
         <v>6646.53</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="3" t="n">
         <v>830.82</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3">
-        <v>16.0</v>
-      </c>
-      <c r="B7" s="3">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="n">
         <v>88.17</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="3" t="n">
         <v>1353.06</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="3" t="n">
         <v>84.75</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="3" t="n">
         <v>276.44</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="3" t="n">
         <v>1804.46</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="3" t="n">
         <v>112.78</v>
       </c>
     </row>
@@ -1146,163 +1478,182 @@
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.9030612244898"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="3">
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="n">
         <v>1.94</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="3" t="n">
         <v>2003.96</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="3" t="n">
         <v>2003.96</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="3" t="n">
         <v>8.89</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="3" t="n">
         <v>2189.28</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="3" t="n">
         <v>2189.28</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="3">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="n">
         <v>1.19</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="3" t="n">
         <v>3269.21</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="3" t="n">
         <v>1634.6</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="3" t="n">
         <v>5.52</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="3" t="n">
         <v>3527.24</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="3" t="n">
         <v>1763.62</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="3">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="n">
         <v>1.08</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="3" t="n">
         <v>3594.53</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="3" t="n">
         <v>898.63</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="3" t="n">
         <v>5.08</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="3" t="n">
         <v>3828.46</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="3" t="n">
         <v>957.12</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="B6" s="3">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="n">
         <v>0.89</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="3" t="n">
         <v>4361.39</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="3" t="n">
         <v>545.17</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="3" t="n">
         <v>4.01</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="3" t="n">
         <v>4851.91</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="3" t="n">
         <v>606.49</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3">
-        <v>16.0</v>
-      </c>
-      <c r="B7" s="3">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="n">
         <v>0.54</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="3" t="n">
         <v>7191.2</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="3" t="n">
         <v>449.45</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="3" t="n">
         <v>2.55</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="3" t="n">
         <v>7641.29</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="3" t="n">
         <v>477.58</v>
       </c>
     </row>
@@ -1311,157 +1662,173 @@
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.9030612244898"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="3">
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="n">
         <v>69.52</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="3" t="n">
         <v>1222.75</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="3" t="n">
         <v>1222.75</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="3" t="n">
         <v>302.98</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="3" t="n">
         <v>1171.75</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="3" t="n">
         <v>1171.75</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="B4" s="3">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="n">
         <v>31.87</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="3" t="n">
         <v>2667.77</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="3" t="n">
         <v>666.94</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="3" t="n">
         <v>132.79</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="3" t="n">
         <v>2673.51</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="3" t="n">
         <v>668.38</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3">
-        <v>9.0</v>
-      </c>
-      <c r="B5" s="3">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="n">
         <v>172.02</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="3" t="n">
         <v>494.2</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="3" t="n">
         <v>54.91</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="3" t="n">
         <v>1991.78</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="3" t="n">
         <v>178.24</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="3" t="n">
         <v>19.8</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3">
-        <v>16.0</v>
-      </c>
-      <c r="B6" s="3">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="n">
         <v>197.05</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="3" t="n">
         <v>431.42</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="3" t="n">
         <v>26.96</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="3" t="n">
         <v>1558.76</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="3" t="n">
         <v>227.75</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="3" t="n">
         <v>14.23</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/benchmark/NAS-PBv3.3.1 P2C Benchmarking (default scheduler).xlsx
+++ b/benchmark/NAS-PBv3.3.1 P2C Benchmarking (default scheduler).xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="BT" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,8 @@
     <sheet name="LU" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="MG" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="SP" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="GNUPlot" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="GNUPlot-Time-Class-A" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="GNUPlot-Time-Class-B" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="27">
   <si>
     <t xml:space="preserve">BT</t>
   </si>
@@ -92,6 +93,24 @@
   </si>
   <si>
     <t xml:space="preserve">16 nodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“1 node”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“2 nodes”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“4 nodes”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“8 nodes”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“16 nodes”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
   </si>
 </sst>
 </file>
@@ -222,9 +241,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.6326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -379,13 +398,177 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>15.47</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>57.31</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>31.75</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>17.33</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>88.17</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -393,19 +576,19 @@
         <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -413,19 +596,19 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>1.24</v>
+        <v>80.95</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>1.08</v>
+        <v>42.11</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>1.49</v>
+        <v>43.08</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>1.48</v>
+        <v>46.37</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>15.47</v>
+        <v>147.76</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -433,39 +616,39 @@
         <v>8</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>20.2</v>
+        <v>80.85</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>10.12</v>
+        <v>40.47</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>5.14</v>
+        <v>20.37</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>3.08</v>
+        <v>12.31</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>1.56</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="n">
-        <v>4.72</v>
+      <c r="B4" s="0" t="s">
+        <v>26</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>5.05</v>
+        <v>81.29</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>5.72</v>
+        <v>71.63</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>4.4</v>
+        <v>51.86</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>3.13</v>
+        <v>34.66</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -473,19 +656,19 @@
         <v>11</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>0.66</v>
+        <v>2.84</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>1.14</v>
+        <v>4.56</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>0.92</v>
+        <v>3.59</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>0.97</v>
+        <v>3.76</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>36.9</v>
+        <v>157.25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -493,19 +676,19 @@
         <v>12</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>57.31</v>
+        <v>267.3</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>31.75</v>
+        <v>137.49</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>20.75</v>
+        <v>101.38</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>17.33</v>
+        <v>75.05</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>88.17</v>
+        <v>276.44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -513,19 +696,19 @@
         <v>13</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>1.94</v>
+        <v>8.89</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>1.19</v>
+        <v>5.52</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>1.08</v>
+        <v>5.08</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>0.89</v>
+        <v>4.01</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>0.54</v>
+        <v>2.55</v>
       </c>
     </row>
   </sheetData>
@@ -544,17 +727,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.6326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -710,6 +893,9 @@
         <v>23.14</v>
       </c>
     </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:D1"/>
@@ -738,7 +924,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.6326530612245"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -759,13 +945,13 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="13.6326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -806,7 +992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
         <v>1</v>
       </c>
@@ -829,7 +1015,7 @@
         <v>26.56</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
         <v>2</v>
       </c>
@@ -852,7 +1038,7 @@
         <v>26.53</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
@@ -875,7 +1061,7 @@
         <v>26.36</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
         <v>8</v>
       </c>
@@ -898,7 +1084,7 @@
         <v>21.81</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
         <v>16</v>
       </c>
@@ -944,12 +1130,12 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.6326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1128,12 +1314,12 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.6326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1312,12 +1498,12 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.6326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1496,12 +1682,12 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.6326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1685,7 +1871,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.6326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/benchmark/NAS-PBv3.3.1 P2C Benchmarking (default scheduler).xlsx
+++ b/benchmark/NAS-PBv3.3.1 P2C Benchmarking (default scheduler).xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="BT" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,6 +19,8 @@
     <sheet name="SP" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="GNUPlot-Time-Class-A" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="GNUPlot-Time-Class-B" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="GNUPlot-Time-Class-A-Rerun" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="GNUPlot-Time-Class-B-Rerun" sheetId="13" state="visible" r:id="rId14"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="27">
   <si>
     <t xml:space="preserve">BT</t>
   </si>
@@ -241,9 +243,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.3622448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -399,10 +401,13 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -562,8 +567,175 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>80.95</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>42.11</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>43.08</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>46.37</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>147.76</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>80.85</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>40.47</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>20.37</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>12.31</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>81.29</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>71.63</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>51.86</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>34.66</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>157.25</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>267.3</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>137.49</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>101.38</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>75.05</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>276.44</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>8.89</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>2.55</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -596,59 +768,49 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>80.95</v>
+        <v>1.18</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>42.11</v>
+        <v>1.05</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>43.08</v>
+        <v>1.34</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>46.37</v>
+        <v>1.46</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>147.76</v>
+        <v>78.66</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="n">
-        <v>80.85</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>40.47</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>20.37</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>12.31</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>6.12</v>
-      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>26</v>
+      <c r="B4" s="3" t="n">
+        <v>4.81</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>81.29</v>
+        <v>4.97</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>71.63</v>
+        <v>6.03</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>51.86</v>
+        <v>4.49</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>34.66</v>
+        <v>9.21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -656,19 +818,19 @@
         <v>11</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>2.84</v>
+        <v>0.64</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>4.56</v>
+        <v>1.14</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>3.59</v>
+        <v>0.91</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>3.76</v>
+        <v>0.89</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>157.25</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -676,40 +838,177 @@
         <v>12</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>267.3</v>
+        <v>57.13</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>137.49</v>
+        <v>32.13</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>101.38</v>
+        <v>20.19</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>75.05</v>
+        <v>16.79</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>276.44</v>
+        <v>95.05</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3" t="n">
-        <v>8.89</v>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>5.52</v>
-      </c>
-      <c r="D7" s="3" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="F7" s="3" t="n">
-        <v>2.55</v>
-      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>80.63</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>42.94</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>46.17</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>159.74</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>63.81</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>69.57</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>328.88</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>32.94</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>267.07</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>140.01</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>102.48</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>74.21</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>532.4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -735,9 +1034,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.3622448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -924,7 +1223,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.3622448979592"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -950,8 +1249,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="13.3622448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1135,7 +1434,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.3622448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1319,7 +1618,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.3622448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1503,7 +1802,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.3622448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1687,7 +1986,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.3622448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1871,7 +2170,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.3622448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
